--- a/Documents/Input_Data.xlsx
+++ b/Documents/Input_Data.xlsx
@@ -3,67 +3,65 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beniwal\Desktop\Test\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40141BD4-C6B8-4946-80BF-FD69895FD05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>EMP_NAME</t>
-  </si>
-  <si>
-    <t>EMP_EMAIL</t>
-  </si>
-  <si>
-    <t>newempemail</t>
-  </si>
-  <si>
-    <t>newEmpname</t>
-  </si>
-  <si>
-    <t>twomep</t>
-  </si>
-  <si>
-    <t>twoemail</t>
-  </si>
-  <si>
-    <t>PROCESSED</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>thirdemp</t>
-  </si>
-  <si>
-    <t>thirdemail</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP_EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newempemail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newEmpname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twomep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twoemail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCESSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirdemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thirdemail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +89,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -102,11 +100,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -374,7 +372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -412,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
